--- a/BackTest/2020-01-16 BackTest DASH.xlsx
+++ b/BackTest/2020-01-16 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,11 +913,17 @@
         <v>-833.7037599099999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>88350</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +952,17 @@
         <v>-794.0709599099999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>88600</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +991,17 @@
         <v>-764.44175991</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>89400</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1034,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,15 +1067,17 @@
         <v>-753.15685991</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>90500</v>
       </c>
-      <c r="J20" t="n">
-        <v>90500</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,15 +1106,15 @@
         <v>-753.48685991</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>90500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>91200</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1124,12 +1148,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>90500</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1164,7 +1186,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1197,7 +1223,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1230,7 +1260,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1263,7 +1297,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1296,7 +1334,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1329,7 +1371,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1362,7 +1408,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1395,7 +1445,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1428,7 +1482,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1461,7 +1519,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1494,7 +1556,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1527,7 +1593,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1560,7 +1630,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1593,7 +1667,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1626,7 +1704,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1659,7 +1741,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1692,7 +1778,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1725,7 +1815,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1758,7 +1852,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1791,7 +1889,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1824,7 +1926,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1857,7 +1963,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1890,7 +2000,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1923,7 +2037,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1956,7 +2074,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1989,7 +2111,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2022,7 +2148,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,7 +2185,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,7 +2222,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,7 +2259,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2296,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,7 +2333,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2370,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2407,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2286,7 +2444,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2481,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2518,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2555,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2592,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2629,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,7 +2666,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2703,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2740,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,7 +2777,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,7 +2814,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2851,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2888,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,7 +2925,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,7 +2962,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,7 +2999,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,7 +3036,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2847,7 +3073,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,7 +3110,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2913,7 +3147,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,7 +3184,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,7 +3221,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,7 +3258,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,7 +3295,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3078,7 +3332,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3369,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,7 +3406,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3443,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3480,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3517,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3554,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3591,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3628,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,7 +3665,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3702,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,7 +3739,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,7 +3776,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,7 +3813,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,7 +3850,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3887,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3924,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,7 +3961,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +3998,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +4035,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,7 +4072,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,7 +4109,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,7 +4146,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3837,7 +4183,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,7 +4220,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3903,7 +4257,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3936,7 +4294,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3969,7 +4331,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,7 +4368,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4035,7 +4405,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,7 +4442,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,7 +4479,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4516,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4167,7 +4553,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4200,7 +4590,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4233,7 +4627,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4664,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,7 +4701,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4738,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4775,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,7 +4812,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4849,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4886,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4923,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,7 +4960,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4563,7 +4997,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,7 +5034,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4629,7 +5071,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4662,7 +5108,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4695,7 +5145,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5182,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4761,7 +5219,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4794,7 +5256,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4827,7 +5293,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4856,15 +5326,15 @@
         <v>-759.9965599100001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>91100</v>
-      </c>
-      <c r="J135" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4893,17 +5363,13 @@
         <v>-836.0513599100001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>91100</v>
-      </c>
-      <c r="J136" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4937,9 +5403,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4976,9 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5015,9 +5477,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5054,9 +5514,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5093,9 +5551,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5129,14 +5585,10 @@
         <v>-831.8950599100001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>90650</v>
-      </c>
-      <c r="J142" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,14 +5622,10 @@
         <v>-831.7212599100001</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>90650</v>
-      </c>
-      <c r="J143" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,14 +5659,10 @@
         <v>-831.7878599100001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>90750</v>
-      </c>
-      <c r="J144" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5255,9 +5699,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5294,9 +5736,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5333,9 +5773,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5369,14 +5807,10 @@
         <v>-833.56935991</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>90800</v>
-      </c>
-      <c r="J148" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,14 +5844,10 @@
         <v>-833.56935991</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J149" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,14 +5881,10 @@
         <v>-833.56935991</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J150" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5492,14 +5918,10 @@
         <v>-833.56935991</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J151" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5533,14 +5955,10 @@
         <v>-833.58165991</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J152" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,14 +5992,10 @@
         <v>-833.58165991</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>90700</v>
-      </c>
-      <c r="J153" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5615,14 +6029,10 @@
         <v>-833.58165991</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>90700</v>
-      </c>
-      <c r="J154" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,14 +6066,10 @@
         <v>-833.58165991</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>90700</v>
-      </c>
-      <c r="J155" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,14 +6103,10 @@
         <v>-826.3843599099999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>90700</v>
-      </c>
-      <c r="J156" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,14 +6140,10 @@
         <v>-826.3843599099999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>90900</v>
-      </c>
-      <c r="J157" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5779,14 +6177,10 @@
         <v>-826.3754599099999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>90900</v>
-      </c>
-      <c r="J158" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,14 +6214,10 @@
         <v>-826.7754599099999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>91450</v>
-      </c>
-      <c r="J159" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5861,14 +6251,10 @@
         <v>-820.3253599099999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>91200</v>
-      </c>
-      <c r="J160" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5905,9 +6291,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,9 +6328,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,9 +6365,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,14 +6399,10 @@
         <v>-846.5382599099999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>90500</v>
-      </c>
-      <c r="J164" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,14 +6436,10 @@
         <v>-847.8782599099999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J165" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6101,14 +6473,10 @@
         <v>-847.8711599099998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>90900</v>
-      </c>
-      <c r="J166" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6142,14 +6510,10 @@
         <v>-847.8711599099998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J167" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,14 +6547,10 @@
         <v>-847.8711599099998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J168" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,14 +6584,10 @@
         <v>-870.1941599099998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J169" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6265,14 +6621,10 @@
         <v>-870.1884599099998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>90750</v>
-      </c>
-      <c r="J170" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6306,14 +6658,10 @@
         <v>-870.1884599099998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>90900</v>
-      </c>
-      <c r="J171" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6347,14 +6695,10 @@
         <v>-864.8425599099997</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>90900</v>
-      </c>
-      <c r="J172" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6388,14 +6732,10 @@
         <v>-864.8366599099998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>91250</v>
-      </c>
-      <c r="J173" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6429,14 +6769,10 @@
         <v>-864.8421599099997</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>91400</v>
-      </c>
-      <c r="J174" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6470,14 +6806,10 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>91200</v>
-      </c>
-      <c r="J175" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6511,14 +6843,10 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>90550</v>
-      </c>
-      <c r="J176" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6552,14 +6880,10 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>90550</v>
-      </c>
-      <c r="J177" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6593,14 +6917,10 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>90550</v>
-      </c>
-      <c r="J178" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,14 +6954,10 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>90550</v>
-      </c>
-      <c r="J179" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6675,14 +6991,10 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>90550</v>
-      </c>
-      <c r="J180" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6716,14 +7028,10 @@
         <v>-867.7570599099997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>90550</v>
-      </c>
-      <c r="J181" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6757,14 +7065,10 @@
         <v>-866.9620599099998</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>90900</v>
-      </c>
-      <c r="J182" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6798,14 +7102,10 @@
         <v>-866.9737599099998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>90950</v>
-      </c>
-      <c r="J183" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6839,14 +7139,10 @@
         <v>-862.8677599099998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>90450</v>
-      </c>
-      <c r="J184" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6880,14 +7176,10 @@
         <v>-862.8738599099997</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>90600</v>
-      </c>
-      <c r="J185" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6921,14 +7213,10 @@
         <v>-862.8994599099998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>90450</v>
-      </c>
-      <c r="J186" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6962,14 +7250,10 @@
         <v>-860.8890599099998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>90200</v>
-      </c>
-      <c r="J187" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7003,14 +7287,10 @@
         <v>-858.2136599099998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>90550</v>
-      </c>
-      <c r="J188" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,14 +7324,10 @@
         <v>-858.2261599099999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>90650</v>
-      </c>
-      <c r="J189" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7085,14 +7361,10 @@
         <v>-858.2261599099999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>90600</v>
-      </c>
-      <c r="J190" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,14 +7398,10 @@
         <v>-881.4034599099998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>90600</v>
-      </c>
-      <c r="J191" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,14 +7435,10 @@
         <v>-881.4034599099998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>90000</v>
-      </c>
-      <c r="J192" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7208,14 +7472,10 @@
         <v>-881.3794599099998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>90000</v>
-      </c>
-      <c r="J193" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,14 +7509,10 @@
         <v>-881.3917599099998</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>90100</v>
-      </c>
-      <c r="J194" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,14 +7546,10 @@
         <v>-876.3917599099998</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>90050</v>
-      </c>
-      <c r="J195" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7331,14 +7583,10 @@
         <v>-883.3917599099998</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>90850</v>
-      </c>
-      <c r="J196" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,14 +7620,10 @@
         <v>-883.3917599099998</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>90450</v>
-      </c>
-      <c r="J197" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7413,14 +7657,10 @@
         <v>-883.3762599099998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>90450</v>
-      </c>
-      <c r="J198" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7454,14 +7694,10 @@
         <v>-866.6352599099998</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>90900</v>
-      </c>
-      <c r="J199" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7495,14 +7731,10 @@
         <v>-866.6352599099998</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>91550</v>
-      </c>
-      <c r="J200" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7536,14 +7768,10 @@
         <v>-866.6229599099998</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>91550</v>
-      </c>
-      <c r="J201" t="n">
-        <v>91100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,9 +7808,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,9 +7845,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7658,9 +7882,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,9 +7919,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7736,9 +7956,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7775,9 +7993,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7814,9 +8030,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7853,9 +8067,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7892,9 +8104,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7931,9 +8141,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7970,9 +8178,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,9 +8215,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8048,9 +8252,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8087,9 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8126,9 +8326,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8165,9 +8363,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8204,9 +8400,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,9 +8437,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8282,9 +8474,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,9 +8511,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8360,9 +8548,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8399,9 +8585,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,9 +8622,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8477,9 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8516,9 +8696,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8555,9 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8594,9 +8770,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8633,9 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8672,9 +8844,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8711,9 +8881,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8750,9 +8918,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8789,9 +8955,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8828,9 +8992,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8867,9 +9029,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,9 +9066,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8945,9 +9103,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8984,9 +9140,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9023,9 +9177,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9062,9 +9214,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9101,9 +9251,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9140,9 +9288,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9179,9 +9325,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9218,9 +9362,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9257,9 +9399,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9296,9 +9436,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9335,9 +9473,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9374,9 +9510,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9413,9 +9547,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9452,9 +9584,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9491,9 +9621,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9530,9 +9658,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9569,9 +9695,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9608,9 +9732,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9647,9 +9769,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9686,9 +9806,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9725,9 +9843,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9764,9 +9880,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9803,9 +9917,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9842,9 +9954,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9881,9 +9991,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9920,9 +10028,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9959,9 +10065,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9998,9 +10102,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10037,9 +10139,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10076,9 +10176,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10115,9 +10213,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10154,9 +10250,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,9 +10287,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10232,9 +10324,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10271,9 +10361,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10310,9 +10398,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10349,9 +10435,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10388,9 +10472,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10427,9 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10466,9 +10546,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10505,9 +10583,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10544,9 +10620,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10583,9 +10657,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10622,9 +10694,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10661,9 +10731,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10700,9 +10768,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10739,9 +10805,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10778,9 +10842,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10817,9 +10879,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10856,9 +10916,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10895,9 +10953,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10934,9 +10990,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10973,9 +11027,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11012,9 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11051,9 +11101,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11090,9 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11129,9 +11175,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11168,9 +11212,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,9 +11249,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11246,9 +11286,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11285,9 +11323,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,9 +11360,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11363,9 +11397,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11402,9 +11434,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11441,9 +11471,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11480,9 +11508,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11519,9 +11545,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,9 +11582,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,9 +11619,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,9 +11656,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11675,9 +11693,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,9 +11730,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11753,9 +11767,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,9 +11804,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11831,9 +11841,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11870,9 +11878,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11909,9 +11915,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,9 +11952,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11987,9 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12026,9 +12026,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12065,9 +12063,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12104,9 +12100,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12143,9 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,9 +12174,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12221,9 +12211,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12260,9 +12248,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12299,9 +12285,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,9 +12322,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12377,9 +12359,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,9 +12396,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12455,9 +12433,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12494,9 +12470,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,9 +12507,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,9 +12544,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12611,9 +12581,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12650,9 +12618,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12689,9 +12655,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12728,9 +12692,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12767,9 +12729,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,9 +12766,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12845,9 +12803,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12884,9 +12840,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,9 +12877,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12962,9 +12914,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13001,9 +12951,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13040,9 +12988,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13079,9 +13025,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13118,9 +13062,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13154,12 +13096,10 @@
         <v>2202.51013771</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13196,9 +13136,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13232,12 +13170,10 @@
         <v>2100.72766779</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13271,12 +13207,10 @@
         <v>2072.55356779</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13310,12 +13244,10 @@
         <v>2007.99366779</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13349,20 +13281,16 @@
         <v>1997.26026779</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>91100</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
@@ -13388,17 +13316,11 @@
         <v>1962.60226779</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13427,17 +13349,11 @@
         <v>1863.87056779</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13466,17 +13382,11 @@
         <v>1882.31853409</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13505,17 +13415,11 @@
         <v>1860.71903409</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13544,17 +13448,11 @@
         <v>1899.79363409</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13583,17 +13481,11 @@
         <v>1929.97033409</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13622,17 +13514,11 @@
         <v>1930.84773409</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13661,17 +13547,11 @@
         <v>1906.85053409</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13700,17 +13580,11 @@
         <v>1927.54957367</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13739,17 +13613,11 @@
         <v>1919.39157367</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13778,17 +13646,11 @@
         <v>1902.45027367</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13817,17 +13679,11 @@
         <v>1711.65481325</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13856,17 +13712,11 @@
         <v>1711.66351325</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13895,17 +13745,11 @@
         <v>1685.35911325</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13934,17 +13778,11 @@
         <v>2006.35851325</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13973,17 +13811,11 @@
         <v>2014.42751325</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14012,17 +13844,11 @@
         <v>2014.42751325</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14051,17 +13877,11 @@
         <v>2014.42031325</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14090,17 +13910,11 @@
         <v>1996.02381325</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14132,14 +13946,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14168,17 +13976,11 @@
         <v>1866.97001325</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14207,17 +14009,11 @@
         <v>1768.46661325</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14246,17 +14042,11 @@
         <v>1766.81811325</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14285,17 +14075,11 @@
         <v>1748.51991325</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14324,17 +14108,11 @@
         <v>1557.84261325</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14363,17 +14141,11 @@
         <v>2023.74791325</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14402,17 +14174,11 @@
         <v>2065.31611325</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14444,14 +14210,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14483,14 +14243,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14522,14 +14276,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14561,14 +14309,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14597,17 +14339,11 @@
         <v>1955.82394282</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14636,17 +14372,11 @@
         <v>1954.68394282</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14675,17 +14405,11 @@
         <v>1956.53394282</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14714,17 +14438,11 @@
         <v>1956.40404282</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14753,17 +14471,11 @@
         <v>1946.11101623</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14792,17 +14504,11 @@
         <v>1946.11101623</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14831,17 +14537,11 @@
         <v>1939.97211623</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14870,17 +14570,11 @@
         <v>1938.79511623</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14909,17 +14603,11 @@
         <v>1982.58671623</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14948,17 +14636,11 @@
         <v>1982.58671623</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14987,17 +14669,11 @@
         <v>2023.32369984</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15026,17 +14702,11 @@
         <v>2049.91179984</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15068,14 +14738,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15107,14 +14771,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15146,14 +14804,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15185,14 +14837,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15224,14 +14870,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15263,14 +14903,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15302,14 +14936,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15341,14 +14969,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15380,14 +15002,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15419,14 +15035,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15458,14 +15068,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15497,14 +15101,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15536,14 +15134,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15575,14 +15167,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15614,14 +15200,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15653,14 +15233,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15692,14 +15266,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15731,14 +15299,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15767,17 +15329,11 @@
         <v>1932.115292350001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15806,17 +15362,11 @@
         <v>1932.115292350001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15845,17 +15395,11 @@
         <v>1919.382292350001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15884,17 +15428,11 @@
         <v>1921.757392350001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15923,17 +15461,11 @@
         <v>1914.004992350001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15962,17 +15494,11 @@
         <v>1905.629992350001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16001,17 +15527,11 @@
         <v>1907.820892350001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16040,17 +15560,11 @@
         <v>1907.820892350001</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16079,17 +15593,11 @@
         <v>1906.767392350001</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16118,17 +15626,11 @@
         <v>1912.189192350001</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16157,17 +15659,11 @@
         <v>1918.809492350001</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16196,17 +15692,11 @@
         <v>1918.809492350001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16235,17 +15725,11 @@
         <v>1912.809492350001</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16274,17 +15758,11 @@
         <v>1924.174092350001</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16316,14 +15794,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16355,14 +15827,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16394,14 +15860,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16433,14 +15893,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16472,14 +15926,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16511,14 +15959,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16550,14 +15992,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16589,14 +16025,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16628,14 +16058,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16667,14 +16091,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16706,14 +16124,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16745,14 +16157,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16784,14 +16190,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16823,14 +16223,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16862,14 +16256,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16898,17 +16286,11 @@
         <v>1656.360992350001</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16937,17 +16319,11 @@
         <v>1664.360992350001</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16976,17 +16352,11 @@
         <v>1651.457092350001</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17015,17 +16385,11 @@
         <v>1647.096392350001</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17054,17 +16418,11 @@
         <v>1654.000992350001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17093,17 +16451,11 @@
         <v>1704.674692350001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17132,17 +16484,11 @@
         <v>1721.400292350001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17171,17 +16517,11 @@
         <v>1729.250292350001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17210,17 +16550,11 @@
         <v>1728.526792350001</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17249,17 +16583,11 @@
         <v>1725.403192350001</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17288,17 +16616,11 @@
         <v>1704.855392350001</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17327,17 +16649,11 @@
         <v>1712.663592350001</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17366,17 +16682,11 @@
         <v>1727.882892350001</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17405,17 +16715,11 @@
         <v>1727.782892350001</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17444,17 +16748,11 @@
         <v>1727.782892350001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17483,17 +16781,11 @@
         <v>1769.396692350001</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17522,17 +16814,11 @@
         <v>1769.396692350001</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17561,17 +16847,11 @@
         <v>1790.611792350001</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17603,14 +16883,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17642,14 +16916,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17681,14 +16949,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17720,14 +16982,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17759,14 +17015,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17798,14 +17048,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17837,14 +17081,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17876,14 +17114,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17915,14 +17147,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17954,14 +17180,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17993,14 +17213,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18032,14 +17246,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18068,17 +17276,11 @@
         <v>1712.012076030001</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18107,17 +17309,11 @@
         <v>1712.012076030001</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18146,17 +17342,11 @@
         <v>1695.764197430002</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18185,17 +17375,11 @@
         <v>1706.803697430002</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18224,17 +17408,11 @@
         <v>1698.339097430002</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18263,17 +17441,11 @@
         <v>1710.729997430002</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18302,17 +17474,11 @@
         <v>1710.729997430002</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18341,17 +17507,11 @@
         <v>1709.377797430002</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18380,17 +17540,11 @@
         <v>1707.117497430002</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18419,17 +17573,11 @@
         <v>1705.662597430002</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18458,17 +17606,11 @@
         <v>1705.662597430002</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18497,17 +17639,11 @@
         <v>1704.844997430002</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18539,14 +17675,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18575,17 +17705,11 @@
         <v>1703.717197430002</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18617,14 +17741,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18656,14 +17774,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18695,14 +17807,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18731,17 +17837,11 @@
         <v>1656.957997430002</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18770,17 +17870,11 @@
         <v>1672.323597430002</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18809,17 +17903,11 @@
         <v>1558.545695990002</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18848,17 +17936,11 @@
         <v>1560.980395990002</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18887,17 +17969,11 @@
         <v>1564.466595990002</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18929,14 +18005,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18968,14 +18038,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19007,14 +18071,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19046,14 +18104,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19085,14 +18137,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19124,14 +18170,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19163,14 +18203,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19202,14 +18236,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19241,14 +18269,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19280,14 +18302,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19319,14 +18335,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19358,14 +18368,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19397,14 +18401,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19436,14 +18434,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19475,14 +18467,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19514,14 +18500,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19553,14 +18533,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19592,14 +18566,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19631,14 +18599,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19670,14 +18632,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19709,14 +18665,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19748,14 +18698,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19787,14 +18731,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19826,14 +18764,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19865,14 +18797,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19904,14 +18830,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19943,14 +18863,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19982,14 +18896,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20021,14 +18929,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20060,14 +18962,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20099,14 +18995,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20138,14 +19028,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20177,14 +19061,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20216,14 +19094,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20255,14 +19127,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20294,14 +19160,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20333,14 +19193,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20372,14 +19226,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20411,14 +19259,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20450,14 +19292,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20489,14 +19325,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20528,14 +19358,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20567,14 +19391,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20606,14 +19424,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20645,14 +19457,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20684,14 +19490,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20723,14 +19523,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20762,14 +19556,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20801,14 +19589,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20840,14 +19622,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20879,14 +19655,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20918,14 +19688,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20957,14 +19721,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20996,14 +19754,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -21035,14 +19787,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -21074,14 +19820,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -21113,14 +19853,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -21152,14 +19886,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -21191,14 +19919,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -21230,14 +19952,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -21269,14 +19985,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -21308,14 +20018,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -21347,14 +20051,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -21386,14 +20084,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -21425,14 +20117,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -21464,14 +20150,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -21503,14 +20183,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21542,14 +20216,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21581,14 +20249,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21620,14 +20282,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21659,14 +20315,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -21698,14 +20348,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -21737,14 +20381,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -21776,14 +20414,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -21815,14 +20447,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -21854,14 +20480,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -21893,14 +20513,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21932,14 +20546,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21971,14 +20579,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -22010,14 +20612,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -22049,14 +20645,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -22088,14 +20678,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -22127,14 +20711,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -22166,14 +20744,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -22205,14 +20777,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -22244,14 +20810,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -22283,14 +20843,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -22322,14 +20876,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -22361,14 +20909,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -22400,14 +20942,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -22439,14 +20975,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -22475,23 +21005,15 @@
         <v>1425.588253620002</v>
       </c>
       <c r="H584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>91100</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
-        <v>1.372607025246982</v>
-      </c>
-      <c r="M584" t="n">
-        <v>1.115054378935318</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -22582,7 +21104,7 @@
         <v>1478.644453620002</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22615,7 +21137,7 @@
         <v>1472.750453620002</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22681,7 +21203,7 @@
         <v>1493.874253620002</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22714,7 +21236,7 @@
         <v>1483.176253620002</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22747,7 +21269,7 @@
         <v>1439.934453620002</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -26806,7 +25328,7 @@
         <v>1791.250769160001</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26839,7 +25361,7 @@
         <v>1791.420769160001</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27301,7 +25823,7 @@
         <v>1922.633869160001</v>
       </c>
       <c r="H730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27334,7 +25856,7 @@
         <v>1571.519669160001</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27367,7 +25889,7 @@
         <v>1571.731869160001</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27400,7 +25922,7 @@
         <v>1587.904169160001</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27433,7 +25955,7 @@
         <v>1577.550869160001</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27466,7 +25988,7 @@
         <v>1579.925069160001</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27499,7 +26021,7 @@
         <v>1438.738569160001</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27532,7 +26054,7 @@
         <v>1437.426969160001</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27565,7 +26087,7 @@
         <v>1423.873369160001</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -27598,7 +26120,7 @@
         <v>1423.881369160001</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -27631,7 +26153,7 @@
         <v>1369.095569160001</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -27664,7 +26186,7 @@
         <v>1368.990469160001</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -27697,7 +26219,7 @@
         <v>1368.990469160001</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -27730,7 +26252,7 @@
         <v>1368.939269160001</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -27763,7 +26285,7 @@
         <v>1383.307569160001</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -27796,7 +26318,7 @@
         <v>1341.331569160001</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -27829,7 +26351,7 @@
         <v>1368.022569160001</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -27862,7 +26384,7 @@
         <v>1376.041956750001</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27895,7 +26417,7 @@
         <v>1379.504256750001</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27928,7 +26450,7 @@
         <v>1362.362756750001</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27961,7 +26483,7 @@
         <v>1345.875256750001</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27994,7 +26516,7 @@
         <v>1300.681656750001</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28027,7 +26549,7 @@
         <v>1300.752956750001</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28060,7 +26582,7 @@
         <v>1306.827156750001</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28093,7 +26615,7 @@
         <v>1306.732456750001</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28126,7 +26648,7 @@
         <v>1306.802556750001</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28159,7 +26681,7 @@
         <v>1301.275356750001</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28192,7 +26714,7 @@
         <v>1301.275356750001</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28225,7 +26747,7 @@
         <v>1301.275356750001</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28258,7 +26780,7 @@
         <v>1301.987356750001</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28720,7 +27242,7 @@
         <v>1268.68805675</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28753,7 +27275,7 @@
         <v>1267.22055675</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28786,7 +27308,7 @@
         <v>1267.36095675</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28819,7 +27341,7 @@
         <v>1264.98805675</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28852,7 +27374,7 @@
         <v>1266.775656750001</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28885,7 +27407,7 @@
         <v>1266.775656750001</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28918,7 +27440,7 @@
         <v>1240.13095675</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28951,7 +27473,7 @@
         <v>1189.30425675</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28984,7 +27506,7 @@
         <v>1175.15475675</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -29017,7 +27539,7 @@
         <v>1177.22845675</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -29050,7 +27572,7 @@
         <v>1179.54875675</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29083,7 +27605,7 @@
         <v>1179.23515675</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29116,7 +27638,7 @@
         <v>1084.95105675</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29149,7 +27671,7 @@
         <v>1089.83225675</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29182,7 +27704,7 @@
         <v>1086.02955675</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29215,7 +27737,7 @@
         <v>1066.70885675</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29248,7 +27770,7 @@
         <v>1066.70885675</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29281,7 +27803,7 @@
         <v>1071.28245675</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29314,7 +27836,7 @@
         <v>1080.95885675</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29380,7 +27902,7 @@
         <v>1127.42443583</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29413,7 +27935,7 @@
         <v>1097.478535830001</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29446,7 +27968,7 @@
         <v>1090.76153583</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29545,7 +28067,7 @@
         <v>1008.39193583</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -29611,7 +28133,7 @@
         <v>854.6126358300003</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30733,7 +29255,7 @@
         <v>989.4613131900004</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -31338,6 +29860,6 @@
       <c r="M852" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest DASH.xlsx
+++ b/BackTest/2020-01-16 BackTest DASH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,3133 +913,2789 @@
         <v>-833.7037599099999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>88350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>88600</v>
+      </c>
+      <c r="C17" t="n">
+        <v>89400</v>
+      </c>
+      <c r="D17" t="n">
+        <v>89400</v>
+      </c>
+      <c r="E17" t="n">
+        <v>88600</v>
+      </c>
+      <c r="F17" t="n">
+        <v>39.6328</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-794.0709599099999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89400</v>
+      </c>
+      <c r="C18" t="n">
+        <v>90050</v>
+      </c>
+      <c r="D18" t="n">
+        <v>90950</v>
+      </c>
+      <c r="E18" t="n">
+        <v>89400</v>
+      </c>
+      <c r="F18" t="n">
+        <v>29.6292</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-764.44175991</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90050</v>
+      </c>
+      <c r="C19" t="n">
+        <v>90500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>90500</v>
+      </c>
+      <c r="E19" t="n">
+        <v>90050</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3412</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-764.10055991</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>91200</v>
+      </c>
+      <c r="C20" t="n">
+        <v>91200</v>
+      </c>
+      <c r="D20" t="n">
+        <v>91200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>91200</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.9437</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-753.15685991</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91050</v>
+      </c>
+      <c r="C21" t="n">
+        <v>91050</v>
+      </c>
+      <c r="D21" t="n">
+        <v>91050</v>
+      </c>
+      <c r="E21" t="n">
+        <v>91050</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-753.48685991</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>91900</v>
+      </c>
+      <c r="C22" t="n">
+        <v>91900</v>
+      </c>
+      <c r="D22" t="n">
+        <v>91900</v>
+      </c>
+      <c r="E22" t="n">
+        <v>91900</v>
+      </c>
+      <c r="F22" t="n">
+        <v>70.8323</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-682.65455991</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>91900</v>
+      </c>
+      <c r="C23" t="n">
+        <v>91900</v>
+      </c>
+      <c r="D23" t="n">
+        <v>91900</v>
+      </c>
+      <c r="E23" t="n">
+        <v>91900</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.952299999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-682.65455991</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>91950</v>
+      </c>
+      <c r="C24" t="n">
+        <v>91950</v>
+      </c>
+      <c r="D24" t="n">
+        <v>91950</v>
+      </c>
+      <c r="E24" t="n">
+        <v>91950</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.3399</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-679.31465991</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>91600</v>
+      </c>
+      <c r="C25" t="n">
+        <v>91150</v>
+      </c>
+      <c r="D25" t="n">
+        <v>91600</v>
+      </c>
+      <c r="E25" t="n">
+        <v>91150</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6.4536</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-685.7682599100001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>91950</v>
+      </c>
+      <c r="C26" t="n">
+        <v>91950</v>
+      </c>
+      <c r="D26" t="n">
+        <v>91950</v>
+      </c>
+      <c r="E26" t="n">
+        <v>91950</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-685.7623599100001</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>91950</v>
+      </c>
+      <c r="C27" t="n">
+        <v>91900</v>
+      </c>
+      <c r="D27" t="n">
+        <v>91950</v>
+      </c>
+      <c r="E27" t="n">
+        <v>91900</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.3646</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-691.1269599100001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>92750</v>
+      </c>
+      <c r="D28" t="n">
+        <v>92750</v>
+      </c>
+      <c r="E28" t="n">
+        <v>92000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.0071</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-690.1198599100001</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>92900</v>
+      </c>
+      <c r="C29" t="n">
+        <v>91650</v>
+      </c>
+      <c r="D29" t="n">
+        <v>92900</v>
+      </c>
+      <c r="E29" t="n">
+        <v>91650</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.9829</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-694.10275991</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C30" t="n">
+        <v>92850</v>
+      </c>
+      <c r="D30" t="n">
+        <v>92850</v>
+      </c>
+      <c r="E30" t="n">
+        <v>92800</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.7869</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-690.3158599100001</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>92950</v>
+      </c>
+      <c r="C31" t="n">
+        <v>92950</v>
+      </c>
+      <c r="D31" t="n">
+        <v>92950</v>
+      </c>
+      <c r="E31" t="n">
+        <v>92950</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-690.3100599100001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>92350</v>
+      </c>
+      <c r="C32" t="n">
+        <v>92950</v>
+      </c>
+      <c r="D32" t="n">
+        <v>92950</v>
+      </c>
+      <c r="E32" t="n">
+        <v>92350</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4774</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-690.3100599100001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>92900</v>
+      </c>
+      <c r="C33" t="n">
+        <v>93000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>92900</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.2147</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-689.0953599100001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>93250</v>
+      </c>
+      <c r="C34" t="n">
+        <v>93250</v>
+      </c>
+      <c r="D34" t="n">
+        <v>93250</v>
+      </c>
+      <c r="E34" t="n">
+        <v>93250</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.1622</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-687.9331599100001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>93200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>92350</v>
+      </c>
+      <c r="D35" t="n">
+        <v>93250</v>
+      </c>
+      <c r="E35" t="n">
+        <v>92350</v>
+      </c>
+      <c r="F35" t="n">
+        <v>29.4679</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-717.4010599100001</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>92350</v>
+      </c>
+      <c r="C36" t="n">
+        <v>93850</v>
+      </c>
+      <c r="D36" t="n">
+        <v>93850</v>
+      </c>
+      <c r="E36" t="n">
+        <v>92350</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20.728</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-696.6730599100001</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>93900</v>
+      </c>
+      <c r="C37" t="n">
+        <v>94050</v>
+      </c>
+      <c r="D37" t="n">
+        <v>94050</v>
+      </c>
+      <c r="E37" t="n">
+        <v>93900</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.3404</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-695.3326599100001</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>94200</v>
+      </c>
+      <c r="C38" t="n">
+        <v>94600</v>
+      </c>
+      <c r="D38" t="n">
+        <v>94600</v>
+      </c>
+      <c r="E38" t="n">
+        <v>94200</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12.7385</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-682.59415991</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>94600</v>
+      </c>
+      <c r="C39" t="n">
+        <v>94800</v>
+      </c>
+      <c r="D39" t="n">
+        <v>94800</v>
+      </c>
+      <c r="E39" t="n">
+        <v>93700</v>
+      </c>
+      <c r="F39" t="n">
+        <v>31.3477</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-651.24645991</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>94750</v>
+      </c>
+      <c r="C40" t="n">
+        <v>95950</v>
+      </c>
+      <c r="D40" t="n">
+        <v>95950</v>
+      </c>
+      <c r="E40" t="n">
+        <v>94750</v>
+      </c>
+      <c r="F40" t="n">
+        <v>24.7645</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-626.48195991</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>95950</v>
+      </c>
+      <c r="C41" t="n">
+        <v>96200</v>
+      </c>
+      <c r="D41" t="n">
+        <v>96200</v>
+      </c>
+      <c r="E41" t="n">
+        <v>95950</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17.8011</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-608.68085991</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>96400</v>
+      </c>
+      <c r="C42" t="n">
+        <v>96900</v>
+      </c>
+      <c r="D42" t="n">
+        <v>96950</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96350</v>
+      </c>
+      <c r="F42" t="n">
+        <v>52.6326</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-556.04825991</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96900</v>
+      </c>
+      <c r="C43" t="n">
+        <v>96900</v>
+      </c>
+      <c r="D43" t="n">
+        <v>96900</v>
+      </c>
+      <c r="E43" t="n">
+        <v>95050</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20.4747</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-556.04825991</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>96900</v>
+      </c>
+      <c r="C44" t="n">
+        <v>96100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>97400</v>
+      </c>
+      <c r="E44" t="n">
+        <v>96100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>44.2503</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-600.29855991</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96100</v>
+      </c>
+      <c r="C45" t="n">
+        <v>94400</v>
+      </c>
+      <c r="D45" t="n">
+        <v>96100</v>
+      </c>
+      <c r="E45" t="n">
+        <v>94400</v>
+      </c>
+      <c r="F45" t="n">
+        <v>240.2553</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-840.55385991</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>96950</v>
+      </c>
+      <c r="C46" t="n">
+        <v>94550</v>
+      </c>
+      <c r="D46" t="n">
+        <v>96950</v>
+      </c>
+      <c r="E46" t="n">
+        <v>94550</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4.019</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-836.53485991</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>94050</v>
+      </c>
+      <c r="C47" t="n">
+        <v>93650</v>
+      </c>
+      <c r="D47" t="n">
+        <v>94050</v>
+      </c>
+      <c r="E47" t="n">
+        <v>93650</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.0893</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-839.62415991</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>93500</v>
+      </c>
+      <c r="C48" t="n">
+        <v>93900</v>
+      </c>
+      <c r="D48" t="n">
+        <v>93900</v>
+      </c>
+      <c r="E48" t="n">
+        <v>93400</v>
+      </c>
+      <c r="F48" t="n">
+        <v>32.7015</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-806.92265991</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>93700</v>
+      </c>
+      <c r="C49" t="n">
+        <v>94750</v>
+      </c>
+      <c r="D49" t="n">
+        <v>94750</v>
+      </c>
+      <c r="E49" t="n">
+        <v>93700</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.1978</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-804.72485991</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>93150</v>
+      </c>
+      <c r="C50" t="n">
+        <v>94550</v>
+      </c>
+      <c r="D50" t="n">
+        <v>94550</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93150</v>
+      </c>
+      <c r="F50" t="n">
+        <v>73.3237</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-878.04855991</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>94400</v>
+      </c>
+      <c r="C51" t="n">
+        <v>94400</v>
+      </c>
+      <c r="D51" t="n">
+        <v>94400</v>
+      </c>
+      <c r="E51" t="n">
+        <v>94400</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-878.1085599099999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>94050</v>
+      </c>
+      <c r="C52" t="n">
+        <v>94050</v>
+      </c>
+      <c r="D52" t="n">
+        <v>94050</v>
+      </c>
+      <c r="E52" t="n">
+        <v>94050</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-878.1141599099999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>93200</v>
+      </c>
+      <c r="C53" t="n">
+        <v>92850</v>
+      </c>
+      <c r="D53" t="n">
+        <v>93200</v>
+      </c>
+      <c r="E53" t="n">
+        <v>92850</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-880.2601599099999</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>92350</v>
+      </c>
+      <c r="C54" t="n">
+        <v>93450</v>
+      </c>
+      <c r="D54" t="n">
+        <v>93550</v>
+      </c>
+      <c r="E54" t="n">
+        <v>90450</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26.6152</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-853.6449599099999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>93350</v>
+      </c>
+      <c r="C55" t="n">
+        <v>93450</v>
+      </c>
+      <c r="D55" t="n">
+        <v>93550</v>
+      </c>
+      <c r="E55" t="n">
+        <v>91350</v>
+      </c>
+      <c r="F55" t="n">
+        <v>24.9375</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-853.6449599099999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>93450</v>
+      </c>
+      <c r="C56" t="n">
+        <v>93450</v>
+      </c>
+      <c r="D56" t="n">
+        <v>93450</v>
+      </c>
+      <c r="E56" t="n">
+        <v>93450</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2894</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-853.6449599099999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>92850</v>
+      </c>
+      <c r="C57" t="n">
+        <v>92850</v>
+      </c>
+      <c r="D57" t="n">
+        <v>92850</v>
+      </c>
+      <c r="E57" t="n">
+        <v>92850</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-853.6527599099999</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C58" t="n">
+        <v>93000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>92750</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0179</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-853.6348599099998</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>92500</v>
+      </c>
+      <c r="C59" t="n">
+        <v>93450</v>
+      </c>
+      <c r="D59" t="n">
+        <v>93450</v>
+      </c>
+      <c r="E59" t="n">
+        <v>92400</v>
+      </c>
+      <c r="F59" t="n">
+        <v>14.786</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-838.8488599099999</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>93350</v>
+      </c>
+      <c r="C60" t="n">
+        <v>93350</v>
+      </c>
+      <c r="D60" t="n">
+        <v>93350</v>
+      </c>
+      <c r="E60" t="n">
+        <v>93350</v>
+      </c>
+      <c r="F60" t="n">
+        <v>30</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-868.8488599099999</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>93350</v>
+      </c>
+      <c r="C61" t="n">
+        <v>92800</v>
+      </c>
+      <c r="D61" t="n">
+        <v>93350</v>
+      </c>
+      <c r="E61" t="n">
+        <v>92800</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-868.8626599099998</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>93250</v>
+      </c>
+      <c r="C62" t="n">
+        <v>93250</v>
+      </c>
+      <c r="D62" t="n">
+        <v>93250</v>
+      </c>
+      <c r="E62" t="n">
+        <v>93000</v>
+      </c>
+      <c r="F62" t="n">
+        <v>30.0127</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-838.8499599099998</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>92950</v>
+      </c>
+      <c r="C63" t="n">
+        <v>92800</v>
+      </c>
+      <c r="D63" t="n">
+        <v>92950</v>
+      </c>
+      <c r="E63" t="n">
+        <v>92800</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-838.8624599099999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>93150</v>
+      </c>
+      <c r="C64" t="n">
+        <v>93150</v>
+      </c>
+      <c r="D64" t="n">
+        <v>93150</v>
+      </c>
+      <c r="E64" t="n">
+        <v>93150</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-838.8569599099999</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>92600</v>
+      </c>
+      <c r="C65" t="n">
+        <v>93400</v>
+      </c>
+      <c r="D65" t="n">
+        <v>93400</v>
+      </c>
+      <c r="E65" t="n">
+        <v>92250</v>
+      </c>
+      <c r="F65" t="n">
+        <v>7.3803</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-831.4766599099999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C66" t="n">
+        <v>92050</v>
+      </c>
+      <c r="D66" t="n">
+        <v>92800</v>
+      </c>
+      <c r="E66" t="n">
+        <v>92050</v>
+      </c>
+      <c r="F66" t="n">
+        <v>10.4774</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-841.9540599099998</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>93350</v>
+      </c>
+      <c r="C67" t="n">
+        <v>93350</v>
+      </c>
+      <c r="D67" t="n">
+        <v>93350</v>
+      </c>
+      <c r="E67" t="n">
+        <v>93350</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-841.9485599099999</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>93400</v>
+      </c>
+      <c r="C68" t="n">
+        <v>93800</v>
+      </c>
+      <c r="D68" t="n">
+        <v>93800</v>
+      </c>
+      <c r="E68" t="n">
+        <v>93400</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2.0061</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-839.9424599099999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>93750</v>
+      </c>
+      <c r="C69" t="n">
+        <v>94500</v>
+      </c>
+      <c r="D69" t="n">
+        <v>94500</v>
+      </c>
+      <c r="E69" t="n">
+        <v>93650</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15.131</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-824.8114599099999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>94500</v>
+      </c>
+      <c r="C70" t="n">
+        <v>94500</v>
+      </c>
+      <c r="D70" t="n">
+        <v>94500</v>
+      </c>
+      <c r="E70" t="n">
+        <v>94350</v>
+      </c>
+      <c r="F70" t="n">
+        <v>17.0461</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-824.8114599099999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>94500</v>
+      </c>
+      <c r="C71" t="n">
+        <v>94500</v>
+      </c>
+      <c r="D71" t="n">
+        <v>94500</v>
+      </c>
+      <c r="E71" t="n">
+        <v>94500</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-824.8114599099999</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>94500</v>
+      </c>
+      <c r="C72" t="n">
+        <v>94500</v>
+      </c>
+      <c r="D72" t="n">
+        <v>94500</v>
+      </c>
+      <c r="E72" t="n">
+        <v>94500</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-824.8114599099999</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>94500</v>
+      </c>
+      <c r="C73" t="n">
+        <v>94500</v>
+      </c>
+      <c r="D73" t="n">
+        <v>94500</v>
+      </c>
+      <c r="E73" t="n">
+        <v>94500</v>
+      </c>
+      <c r="F73" t="n">
+        <v>37.0798</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-824.8114599099999</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>94500</v>
+      </c>
+      <c r="C74" t="n">
+        <v>94950</v>
+      </c>
+      <c r="D74" t="n">
+        <v>94950</v>
+      </c>
+      <c r="E74" t="n">
+        <v>94500</v>
+      </c>
+      <c r="F74" t="n">
+        <v>17.9155</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-806.89595991</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>94950</v>
+      </c>
+      <c r="C75" t="n">
+        <v>94250</v>
+      </c>
+      <c r="D75" t="n">
+        <v>94950</v>
+      </c>
+      <c r="E75" t="n">
+        <v>94250</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-806.92855991</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>94050</v>
+      </c>
+      <c r="C76" t="n">
+        <v>92250</v>
+      </c>
+      <c r="D76" t="n">
+        <v>94200</v>
+      </c>
+      <c r="E76" t="n">
+        <v>92250</v>
+      </c>
+      <c r="F76" t="n">
+        <v>9.376799999999999</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-816.30535991</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>94000</v>
+      </c>
+      <c r="C77" t="n">
+        <v>94000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>94000</v>
+      </c>
+      <c r="E77" t="n">
+        <v>94000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0056</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-816.29975991</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>92050</v>
+      </c>
+      <c r="C78" t="n">
+        <v>93000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>92050</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-816.32435991</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>94050</v>
+      </c>
+      <c r="C79" t="n">
+        <v>94050</v>
+      </c>
+      <c r="D79" t="n">
+        <v>94050</v>
+      </c>
+      <c r="E79" t="n">
+        <v>94050</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-816.31745991</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>93050</v>
+      </c>
+      <c r="C80" t="n">
+        <v>92550</v>
+      </c>
+      <c r="D80" t="n">
+        <v>93350</v>
+      </c>
+      <c r="E80" t="n">
+        <v>92550</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.0182</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-817.33565991</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>93350</v>
+      </c>
+      <c r="C81" t="n">
+        <v>93300</v>
+      </c>
+      <c r="D81" t="n">
+        <v>93350</v>
+      </c>
+      <c r="E81" t="n">
+        <v>93300</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0123</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-817.32335991</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>93550</v>
+      </c>
+      <c r="C82" t="n">
+        <v>93550</v>
+      </c>
+      <c r="D82" t="n">
+        <v>93550</v>
+      </c>
+      <c r="E82" t="n">
+        <v>93550</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.0077</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-817.31565991</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>92850</v>
+      </c>
+      <c r="C83" t="n">
+        <v>92850</v>
+      </c>
+      <c r="D83" t="n">
+        <v>92850</v>
+      </c>
+      <c r="E83" t="n">
+        <v>92850</v>
+      </c>
+      <c r="F83" t="n">
+        <v>42.2989</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-859.61455991</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>92850</v>
+      </c>
+      <c r="C84" t="n">
+        <v>93500</v>
+      </c>
+      <c r="D84" t="n">
+        <v>93500</v>
+      </c>
+      <c r="E84" t="n">
+        <v>92850</v>
+      </c>
+      <c r="F84" t="n">
+        <v>7.2103</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-852.4042599100001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>93200</v>
+      </c>
+      <c r="C85" t="n">
+        <v>93050</v>
+      </c>
+      <c r="D85" t="n">
+        <v>93200</v>
+      </c>
+      <c r="E85" t="n">
+        <v>93050</v>
+      </c>
+      <c r="F85" t="n">
+        <v>4.5018</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-856.9060599100001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>93000</v>
+      </c>
+      <c r="C86" t="n">
+        <v>93000</v>
+      </c>
+      <c r="D86" t="n">
+        <v>93000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>93000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0866</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-856.99265991</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C87" t="n">
+        <v>92750</v>
+      </c>
+      <c r="D87" t="n">
+        <v>92800</v>
+      </c>
+      <c r="E87" t="n">
+        <v>92750</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-857.0187599100001</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>92500</v>
+      </c>
+      <c r="C88" t="n">
+        <v>92500</v>
+      </c>
+      <c r="D88" t="n">
+        <v>92500</v>
+      </c>
+      <c r="E88" t="n">
+        <v>92500</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-857.0256599100001</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>92500</v>
+      </c>
+      <c r="C89" t="n">
+        <v>92500</v>
+      </c>
+      <c r="D89" t="n">
+        <v>92500</v>
+      </c>
+      <c r="E89" t="n">
+        <v>92500</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.6873</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-857.0256599100001</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C90" t="n">
+        <v>92850</v>
+      </c>
+      <c r="D90" t="n">
+        <v>92850</v>
+      </c>
+      <c r="E90" t="n">
+        <v>92000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1172</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-856.90845991</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C91" t="n">
+        <v>92800</v>
+      </c>
+      <c r="D91" t="n">
+        <v>92800</v>
+      </c>
+      <c r="E91" t="n">
+        <v>92800</v>
+      </c>
+      <c r="F91" t="n">
+        <v>4.1085</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-861.0169599100001</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C92" t="n">
+        <v>92800</v>
+      </c>
+      <c r="D92" t="n">
+        <v>92800</v>
+      </c>
+      <c r="E92" t="n">
+        <v>92800</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12.398</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-861.0169599100001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C93" t="n">
+        <v>94150</v>
+      </c>
+      <c r="D93" t="n">
+        <v>94150</v>
+      </c>
+      <c r="E93" t="n">
+        <v>92800</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.5041</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-860.5128599100001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93450</v>
+      </c>
+      <c r="C94" t="n">
+        <v>93350</v>
+      </c>
+      <c r="D94" t="n">
+        <v>93450</v>
+      </c>
+      <c r="E94" t="n">
+        <v>92500</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-860.5339599100001</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>92800</v>
+      </c>
+      <c r="C95" t="n">
+        <v>92550</v>
+      </c>
+      <c r="D95" t="n">
+        <v>92800</v>
+      </c>
+      <c r="E95" t="n">
+        <v>91200</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.9056</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-863.4395599100002</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>93650</v>
+      </c>
+      <c r="C96" t="n">
+        <v>93650</v>
+      </c>
+      <c r="D96" t="n">
+        <v>93650</v>
+      </c>
+      <c r="E96" t="n">
+        <v>93650</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-863.4328599100002</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>92950</v>
+      </c>
+      <c r="C97" t="n">
+        <v>92950</v>
+      </c>
+      <c r="D97" t="n">
+        <v>92950</v>
+      </c>
+      <c r="E97" t="n">
+        <v>92950</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-863.4402599100001</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>92050</v>
+      </c>
+      <c r="C98" t="n">
+        <v>92050</v>
+      </c>
+      <c r="D98" t="n">
+        <v>92050</v>
+      </c>
+      <c r="E98" t="n">
+        <v>92050</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-863.4460599100001</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>92000</v>
+      </c>
+      <c r="C99" t="n">
+        <v>92600</v>
+      </c>
+      <c r="D99" t="n">
+        <v>92600</v>
+      </c>
+      <c r="E99" t="n">
+        <v>92000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1706</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-863.2754599100001</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>93550</v>
+      </c>
+      <c r="C100" t="n">
+        <v>92000</v>
+      </c>
+      <c r="D100" t="n">
+        <v>93550</v>
+      </c>
+      <c r="E100" t="n">
+        <v>92000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-864.7224599100001</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>92600</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>88600</v>
-      </c>
-      <c r="C17" t="n">
-        <v>89400</v>
-      </c>
-      <c r="D17" t="n">
-        <v>89400</v>
-      </c>
-      <c r="E17" t="n">
-        <v>88600</v>
-      </c>
-      <c r="F17" t="n">
-        <v>39.6328</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-794.0709599099999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>88600</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>89400</v>
-      </c>
-      <c r="C18" t="n">
-        <v>90050</v>
-      </c>
-      <c r="D18" t="n">
-        <v>90950</v>
-      </c>
-      <c r="E18" t="n">
-        <v>89400</v>
-      </c>
-      <c r="F18" t="n">
-        <v>29.6292</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-764.44175991</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>89400</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>90050</v>
-      </c>
-      <c r="C19" t="n">
-        <v>90500</v>
-      </c>
-      <c r="D19" t="n">
-        <v>90500</v>
-      </c>
-      <c r="E19" t="n">
-        <v>90050</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.3412</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-764.10055991</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>91200</v>
-      </c>
-      <c r="C20" t="n">
-        <v>91200</v>
-      </c>
-      <c r="D20" t="n">
-        <v>91200</v>
-      </c>
-      <c r="E20" t="n">
-        <v>91200</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10.9437</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-753.15685991</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>90500</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>91050</v>
-      </c>
-      <c r="C21" t="n">
-        <v>91050</v>
-      </c>
-      <c r="D21" t="n">
-        <v>91050</v>
-      </c>
-      <c r="E21" t="n">
-        <v>91050</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-753.48685991</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>91200</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>91900</v>
-      </c>
-      <c r="C22" t="n">
-        <v>91900</v>
-      </c>
-      <c r="D22" t="n">
-        <v>91900</v>
-      </c>
-      <c r="E22" t="n">
-        <v>91900</v>
-      </c>
-      <c r="F22" t="n">
-        <v>70.8323</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-682.65455991</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>91900</v>
-      </c>
-      <c r="C23" t="n">
-        <v>91900</v>
-      </c>
-      <c r="D23" t="n">
-        <v>91900</v>
-      </c>
-      <c r="E23" t="n">
-        <v>91900</v>
-      </c>
-      <c r="F23" t="n">
-        <v>8.952299999999999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-682.65455991</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>91950</v>
-      </c>
-      <c r="C24" t="n">
-        <v>91950</v>
-      </c>
-      <c r="D24" t="n">
-        <v>91950</v>
-      </c>
-      <c r="E24" t="n">
-        <v>91950</v>
-      </c>
-      <c r="F24" t="n">
-        <v>3.3399</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-679.31465991</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>91600</v>
-      </c>
-      <c r="C25" t="n">
-        <v>91150</v>
-      </c>
-      <c r="D25" t="n">
-        <v>91600</v>
-      </c>
-      <c r="E25" t="n">
-        <v>91150</v>
-      </c>
-      <c r="F25" t="n">
-        <v>6.4536</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-685.7682599100001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>91950</v>
-      </c>
-      <c r="C26" t="n">
-        <v>91950</v>
-      </c>
-      <c r="D26" t="n">
-        <v>91950</v>
-      </c>
-      <c r="E26" t="n">
-        <v>91950</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-685.7623599100001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>91950</v>
-      </c>
-      <c r="C27" t="n">
-        <v>91900</v>
-      </c>
-      <c r="D27" t="n">
-        <v>91950</v>
-      </c>
-      <c r="E27" t="n">
-        <v>91900</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5.3646</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-691.1269599100001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>92000</v>
-      </c>
-      <c r="C28" t="n">
-        <v>92750</v>
-      </c>
-      <c r="D28" t="n">
-        <v>92750</v>
-      </c>
-      <c r="E28" t="n">
-        <v>92000</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.0071</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-690.1198599100001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>92900</v>
-      </c>
-      <c r="C29" t="n">
-        <v>91650</v>
-      </c>
-      <c r="D29" t="n">
-        <v>92900</v>
-      </c>
-      <c r="E29" t="n">
-        <v>91650</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3.9829</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-694.10275991</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C30" t="n">
-        <v>92850</v>
-      </c>
-      <c r="D30" t="n">
-        <v>92850</v>
-      </c>
-      <c r="E30" t="n">
-        <v>92800</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.7869</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-690.3158599100001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>92950</v>
-      </c>
-      <c r="C31" t="n">
-        <v>92950</v>
-      </c>
-      <c r="D31" t="n">
-        <v>92950</v>
-      </c>
-      <c r="E31" t="n">
-        <v>92950</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-690.3100599100001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>92350</v>
-      </c>
-      <c r="C32" t="n">
-        <v>92950</v>
-      </c>
-      <c r="D32" t="n">
-        <v>92950</v>
-      </c>
-      <c r="E32" t="n">
-        <v>92350</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.4774</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-690.3100599100001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>92900</v>
-      </c>
-      <c r="C33" t="n">
-        <v>93000</v>
-      </c>
-      <c r="D33" t="n">
-        <v>93000</v>
-      </c>
-      <c r="E33" t="n">
-        <v>92900</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.2147</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-689.0953599100001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>93250</v>
-      </c>
-      <c r="C34" t="n">
-        <v>93250</v>
-      </c>
-      <c r="D34" t="n">
-        <v>93250</v>
-      </c>
-      <c r="E34" t="n">
-        <v>93250</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.1622</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-687.9331599100001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>93200</v>
-      </c>
-      <c r="C35" t="n">
-        <v>92350</v>
-      </c>
-      <c r="D35" t="n">
-        <v>93250</v>
-      </c>
-      <c r="E35" t="n">
-        <v>92350</v>
-      </c>
-      <c r="F35" t="n">
-        <v>29.4679</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-717.4010599100001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>92350</v>
-      </c>
-      <c r="C36" t="n">
-        <v>93850</v>
-      </c>
-      <c r="D36" t="n">
-        <v>93850</v>
-      </c>
-      <c r="E36" t="n">
-        <v>92350</v>
-      </c>
-      <c r="F36" t="n">
-        <v>20.728</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-696.6730599100001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>93900</v>
-      </c>
-      <c r="C37" t="n">
-        <v>94050</v>
-      </c>
-      <c r="D37" t="n">
-        <v>94050</v>
-      </c>
-      <c r="E37" t="n">
-        <v>93900</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.3404</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-695.3326599100001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>94200</v>
-      </c>
-      <c r="C38" t="n">
-        <v>94600</v>
-      </c>
-      <c r="D38" t="n">
-        <v>94600</v>
-      </c>
-      <c r="E38" t="n">
-        <v>94200</v>
-      </c>
-      <c r="F38" t="n">
-        <v>12.7385</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-682.59415991</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>94600</v>
-      </c>
-      <c r="C39" t="n">
-        <v>94800</v>
-      </c>
-      <c r="D39" t="n">
-        <v>94800</v>
-      </c>
-      <c r="E39" t="n">
-        <v>93700</v>
-      </c>
-      <c r="F39" t="n">
-        <v>31.3477</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-651.24645991</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>94750</v>
-      </c>
-      <c r="C40" t="n">
-        <v>95950</v>
-      </c>
-      <c r="D40" t="n">
-        <v>95950</v>
-      </c>
-      <c r="E40" t="n">
-        <v>94750</v>
-      </c>
-      <c r="F40" t="n">
-        <v>24.7645</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-626.48195991</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>95950</v>
-      </c>
-      <c r="C41" t="n">
-        <v>96200</v>
-      </c>
-      <c r="D41" t="n">
-        <v>96200</v>
-      </c>
-      <c r="E41" t="n">
-        <v>95950</v>
-      </c>
-      <c r="F41" t="n">
-        <v>17.8011</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-608.68085991</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>96400</v>
-      </c>
-      <c r="C42" t="n">
-        <v>96900</v>
-      </c>
-      <c r="D42" t="n">
-        <v>96950</v>
-      </c>
-      <c r="E42" t="n">
-        <v>96350</v>
-      </c>
-      <c r="F42" t="n">
-        <v>52.6326</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-556.04825991</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>96900</v>
-      </c>
-      <c r="C43" t="n">
-        <v>96900</v>
-      </c>
-      <c r="D43" t="n">
-        <v>96900</v>
-      </c>
-      <c r="E43" t="n">
-        <v>95050</v>
-      </c>
-      <c r="F43" t="n">
-        <v>20.4747</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-556.04825991</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>96900</v>
-      </c>
-      <c r="C44" t="n">
-        <v>96100</v>
-      </c>
-      <c r="D44" t="n">
-        <v>97400</v>
-      </c>
-      <c r="E44" t="n">
-        <v>96100</v>
-      </c>
-      <c r="F44" t="n">
-        <v>44.2503</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-600.29855991</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>96100</v>
-      </c>
-      <c r="C45" t="n">
-        <v>94400</v>
-      </c>
-      <c r="D45" t="n">
-        <v>96100</v>
-      </c>
-      <c r="E45" t="n">
-        <v>94400</v>
-      </c>
-      <c r="F45" t="n">
-        <v>240.2553</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-840.55385991</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>96950</v>
-      </c>
-      <c r="C46" t="n">
-        <v>94550</v>
-      </c>
-      <c r="D46" t="n">
-        <v>96950</v>
-      </c>
-      <c r="E46" t="n">
-        <v>94550</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4.019</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-836.53485991</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>94050</v>
-      </c>
-      <c r="C47" t="n">
-        <v>93650</v>
-      </c>
-      <c r="D47" t="n">
-        <v>94050</v>
-      </c>
-      <c r="E47" t="n">
-        <v>93650</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3.0893</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-839.62415991</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>93500</v>
-      </c>
-      <c r="C48" t="n">
-        <v>93900</v>
-      </c>
-      <c r="D48" t="n">
-        <v>93900</v>
-      </c>
-      <c r="E48" t="n">
-        <v>93400</v>
-      </c>
-      <c r="F48" t="n">
-        <v>32.7015</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-806.92265991</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>93700</v>
-      </c>
-      <c r="C49" t="n">
-        <v>94750</v>
-      </c>
-      <c r="D49" t="n">
-        <v>94750</v>
-      </c>
-      <c r="E49" t="n">
-        <v>93700</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2.1978</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-804.72485991</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>93150</v>
-      </c>
-      <c r="C50" t="n">
-        <v>94550</v>
-      </c>
-      <c r="D50" t="n">
-        <v>94550</v>
-      </c>
-      <c r="E50" t="n">
-        <v>93150</v>
-      </c>
-      <c r="F50" t="n">
-        <v>73.3237</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-878.04855991</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>94400</v>
-      </c>
-      <c r="C51" t="n">
-        <v>94400</v>
-      </c>
-      <c r="D51" t="n">
-        <v>94400</v>
-      </c>
-      <c r="E51" t="n">
-        <v>94400</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-878.1085599099999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>94050</v>
-      </c>
-      <c r="C52" t="n">
-        <v>94050</v>
-      </c>
-      <c r="D52" t="n">
-        <v>94050</v>
-      </c>
-      <c r="E52" t="n">
-        <v>94050</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-878.1141599099999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>93200</v>
-      </c>
-      <c r="C53" t="n">
-        <v>92850</v>
-      </c>
-      <c r="D53" t="n">
-        <v>93200</v>
-      </c>
-      <c r="E53" t="n">
-        <v>92850</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2.146</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-880.2601599099999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>92350</v>
-      </c>
-      <c r="C54" t="n">
-        <v>93450</v>
-      </c>
-      <c r="D54" t="n">
-        <v>93550</v>
-      </c>
-      <c r="E54" t="n">
-        <v>90450</v>
-      </c>
-      <c r="F54" t="n">
-        <v>26.6152</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-853.6449599099999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>93350</v>
-      </c>
-      <c r="C55" t="n">
-        <v>93450</v>
-      </c>
-      <c r="D55" t="n">
-        <v>93550</v>
-      </c>
-      <c r="E55" t="n">
-        <v>91350</v>
-      </c>
-      <c r="F55" t="n">
-        <v>24.9375</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-853.6449599099999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>93450</v>
-      </c>
-      <c r="C56" t="n">
-        <v>93450</v>
-      </c>
-      <c r="D56" t="n">
-        <v>93450</v>
-      </c>
-      <c r="E56" t="n">
-        <v>93450</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.2894</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-853.6449599099999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>92850</v>
-      </c>
-      <c r="C57" t="n">
-        <v>92850</v>
-      </c>
-      <c r="D57" t="n">
-        <v>92850</v>
-      </c>
-      <c r="E57" t="n">
-        <v>92850</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0078</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-853.6527599099999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C58" t="n">
-        <v>93000</v>
-      </c>
-      <c r="D58" t="n">
-        <v>93000</v>
-      </c>
-      <c r="E58" t="n">
-        <v>92750</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.0179</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-853.6348599099998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>92500</v>
-      </c>
-      <c r="C59" t="n">
-        <v>93450</v>
-      </c>
-      <c r="D59" t="n">
-        <v>93450</v>
-      </c>
-      <c r="E59" t="n">
-        <v>92400</v>
-      </c>
-      <c r="F59" t="n">
-        <v>14.786</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-838.8488599099999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>93350</v>
-      </c>
-      <c r="C60" t="n">
-        <v>93350</v>
-      </c>
-      <c r="D60" t="n">
-        <v>93350</v>
-      </c>
-      <c r="E60" t="n">
-        <v>93350</v>
-      </c>
-      <c r="F60" t="n">
-        <v>30</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-868.8488599099999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>93350</v>
-      </c>
-      <c r="C61" t="n">
-        <v>92800</v>
-      </c>
-      <c r="D61" t="n">
-        <v>93350</v>
-      </c>
-      <c r="E61" t="n">
-        <v>92800</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0138</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-868.8626599099998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>93250</v>
-      </c>
-      <c r="C62" t="n">
-        <v>93250</v>
-      </c>
-      <c r="D62" t="n">
-        <v>93250</v>
-      </c>
-      <c r="E62" t="n">
-        <v>93000</v>
-      </c>
-      <c r="F62" t="n">
-        <v>30.0127</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-838.8499599099998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>92950</v>
-      </c>
-      <c r="C63" t="n">
-        <v>92800</v>
-      </c>
-      <c r="D63" t="n">
-        <v>92950</v>
-      </c>
-      <c r="E63" t="n">
-        <v>92800</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-838.8624599099999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>93150</v>
-      </c>
-      <c r="C64" t="n">
-        <v>93150</v>
-      </c>
-      <c r="D64" t="n">
-        <v>93150</v>
-      </c>
-      <c r="E64" t="n">
-        <v>93150</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-838.8569599099999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>92600</v>
-      </c>
-      <c r="C65" t="n">
-        <v>93400</v>
-      </c>
-      <c r="D65" t="n">
-        <v>93400</v>
-      </c>
-      <c r="E65" t="n">
-        <v>92250</v>
-      </c>
-      <c r="F65" t="n">
-        <v>7.3803</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-831.4766599099999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C66" t="n">
-        <v>92050</v>
-      </c>
-      <c r="D66" t="n">
-        <v>92800</v>
-      </c>
-      <c r="E66" t="n">
-        <v>92050</v>
-      </c>
-      <c r="F66" t="n">
-        <v>10.4774</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-841.9540599099998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>93350</v>
-      </c>
-      <c r="C67" t="n">
-        <v>93350</v>
-      </c>
-      <c r="D67" t="n">
-        <v>93350</v>
-      </c>
-      <c r="E67" t="n">
-        <v>93350</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-841.9485599099999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>93400</v>
-      </c>
-      <c r="C68" t="n">
-        <v>93800</v>
-      </c>
-      <c r="D68" t="n">
-        <v>93800</v>
-      </c>
-      <c r="E68" t="n">
-        <v>93400</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2.0061</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-839.9424599099999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>93750</v>
-      </c>
-      <c r="C69" t="n">
-        <v>94500</v>
-      </c>
-      <c r="D69" t="n">
-        <v>94500</v>
-      </c>
-      <c r="E69" t="n">
-        <v>93650</v>
-      </c>
-      <c r="F69" t="n">
-        <v>15.131</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-824.8114599099999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>94500</v>
-      </c>
-      <c r="C70" t="n">
-        <v>94500</v>
-      </c>
-      <c r="D70" t="n">
-        <v>94500</v>
-      </c>
-      <c r="E70" t="n">
-        <v>94350</v>
-      </c>
-      <c r="F70" t="n">
-        <v>17.0461</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-824.8114599099999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>94500</v>
-      </c>
-      <c r="C71" t="n">
-        <v>94500</v>
-      </c>
-      <c r="D71" t="n">
-        <v>94500</v>
-      </c>
-      <c r="E71" t="n">
-        <v>94500</v>
-      </c>
-      <c r="F71" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-824.8114599099999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>94500</v>
-      </c>
-      <c r="C72" t="n">
-        <v>94500</v>
-      </c>
-      <c r="D72" t="n">
-        <v>94500</v>
-      </c>
-      <c r="E72" t="n">
-        <v>94500</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-824.8114599099999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>94500</v>
-      </c>
-      <c r="C73" t="n">
-        <v>94500</v>
-      </c>
-      <c r="D73" t="n">
-        <v>94500</v>
-      </c>
-      <c r="E73" t="n">
-        <v>94500</v>
-      </c>
-      <c r="F73" t="n">
-        <v>37.0798</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-824.8114599099999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>94500</v>
-      </c>
-      <c r="C74" t="n">
-        <v>94950</v>
-      </c>
-      <c r="D74" t="n">
-        <v>94950</v>
-      </c>
-      <c r="E74" t="n">
-        <v>94500</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17.9155</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-806.89595991</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>94950</v>
-      </c>
-      <c r="C75" t="n">
-        <v>94250</v>
-      </c>
-      <c r="D75" t="n">
-        <v>94950</v>
-      </c>
-      <c r="E75" t="n">
-        <v>94250</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.0326</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-806.92855991</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>94050</v>
-      </c>
-      <c r="C76" t="n">
-        <v>92250</v>
-      </c>
-      <c r="D76" t="n">
-        <v>94200</v>
-      </c>
-      <c r="E76" t="n">
-        <v>92250</v>
-      </c>
-      <c r="F76" t="n">
-        <v>9.376799999999999</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-816.30535991</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>94000</v>
-      </c>
-      <c r="C77" t="n">
-        <v>94000</v>
-      </c>
-      <c r="D77" t="n">
-        <v>94000</v>
-      </c>
-      <c r="E77" t="n">
-        <v>94000</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-816.29975991</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>92050</v>
-      </c>
-      <c r="C78" t="n">
-        <v>93000</v>
-      </c>
-      <c r="D78" t="n">
-        <v>93000</v>
-      </c>
-      <c r="E78" t="n">
-        <v>92050</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.0246</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-816.32435991</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>94050</v>
-      </c>
-      <c r="C79" t="n">
-        <v>94050</v>
-      </c>
-      <c r="D79" t="n">
-        <v>94050</v>
-      </c>
-      <c r="E79" t="n">
-        <v>94050</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-816.31745991</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>93050</v>
-      </c>
-      <c r="C80" t="n">
-        <v>92550</v>
-      </c>
-      <c r="D80" t="n">
-        <v>93350</v>
-      </c>
-      <c r="E80" t="n">
-        <v>92550</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1.0182</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-817.33565991</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>93350</v>
-      </c>
-      <c r="C81" t="n">
-        <v>93300</v>
-      </c>
-      <c r="D81" t="n">
-        <v>93350</v>
-      </c>
-      <c r="E81" t="n">
-        <v>93300</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.0123</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-817.32335991</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>93550</v>
-      </c>
-      <c r="C82" t="n">
-        <v>93550</v>
-      </c>
-      <c r="D82" t="n">
-        <v>93550</v>
-      </c>
-      <c r="E82" t="n">
-        <v>93550</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-817.31565991</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>92850</v>
-      </c>
-      <c r="C83" t="n">
-        <v>92850</v>
-      </c>
-      <c r="D83" t="n">
-        <v>92850</v>
-      </c>
-      <c r="E83" t="n">
-        <v>92850</v>
-      </c>
-      <c r="F83" t="n">
-        <v>42.2989</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-859.61455991</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>92850</v>
-      </c>
-      <c r="C84" t="n">
-        <v>93500</v>
-      </c>
-      <c r="D84" t="n">
-        <v>93500</v>
-      </c>
-      <c r="E84" t="n">
-        <v>92850</v>
-      </c>
-      <c r="F84" t="n">
-        <v>7.2103</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-852.4042599100001</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>93200</v>
-      </c>
-      <c r="C85" t="n">
-        <v>93050</v>
-      </c>
-      <c r="D85" t="n">
-        <v>93200</v>
-      </c>
-      <c r="E85" t="n">
-        <v>93050</v>
-      </c>
-      <c r="F85" t="n">
-        <v>4.5018</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-856.9060599100001</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>93000</v>
-      </c>
-      <c r="C86" t="n">
-        <v>93000</v>
-      </c>
-      <c r="D86" t="n">
-        <v>93000</v>
-      </c>
-      <c r="E86" t="n">
-        <v>93000</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.0866</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-856.99265991</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C87" t="n">
-        <v>92750</v>
-      </c>
-      <c r="D87" t="n">
-        <v>92800</v>
-      </c>
-      <c r="E87" t="n">
-        <v>92750</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-857.0187599100001</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>92500</v>
-      </c>
-      <c r="C88" t="n">
-        <v>92500</v>
-      </c>
-      <c r="D88" t="n">
-        <v>92500</v>
-      </c>
-      <c r="E88" t="n">
-        <v>92500</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-857.0256599100001</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>92500</v>
-      </c>
-      <c r="C89" t="n">
-        <v>92500</v>
-      </c>
-      <c r="D89" t="n">
-        <v>92500</v>
-      </c>
-      <c r="E89" t="n">
-        <v>92500</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2.6873</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-857.0256599100001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>92000</v>
-      </c>
-      <c r="C90" t="n">
-        <v>92850</v>
-      </c>
-      <c r="D90" t="n">
-        <v>92850</v>
-      </c>
-      <c r="E90" t="n">
-        <v>92000</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.1172</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-856.90845991</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C91" t="n">
-        <v>92800</v>
-      </c>
-      <c r="D91" t="n">
-        <v>92800</v>
-      </c>
-      <c r="E91" t="n">
-        <v>92800</v>
-      </c>
-      <c r="F91" t="n">
-        <v>4.1085</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-861.0169599100001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C92" t="n">
-        <v>92800</v>
-      </c>
-      <c r="D92" t="n">
-        <v>92800</v>
-      </c>
-      <c r="E92" t="n">
-        <v>92800</v>
-      </c>
-      <c r="F92" t="n">
-        <v>12.398</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-861.0169599100001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C93" t="n">
-        <v>94150</v>
-      </c>
-      <c r="D93" t="n">
-        <v>94150</v>
-      </c>
-      <c r="E93" t="n">
-        <v>92800</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.5041</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-860.5128599100001</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>93450</v>
-      </c>
-      <c r="C94" t="n">
-        <v>93350</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93450</v>
-      </c>
-      <c r="E94" t="n">
-        <v>92500</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-860.5339599100001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>92800</v>
-      </c>
-      <c r="C95" t="n">
-        <v>92550</v>
-      </c>
-      <c r="D95" t="n">
-        <v>92800</v>
-      </c>
-      <c r="E95" t="n">
-        <v>91200</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2.9056</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-863.4395599100002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>93650</v>
-      </c>
-      <c r="C96" t="n">
-        <v>93650</v>
-      </c>
-      <c r="D96" t="n">
-        <v>93650</v>
-      </c>
-      <c r="E96" t="n">
-        <v>93650</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-863.4328599100002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>92950</v>
-      </c>
-      <c r="C97" t="n">
-        <v>92950</v>
-      </c>
-      <c r="D97" t="n">
-        <v>92950</v>
-      </c>
-      <c r="E97" t="n">
-        <v>92950</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-863.4402599100001</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>92050</v>
-      </c>
-      <c r="C98" t="n">
-        <v>92050</v>
-      </c>
-      <c r="D98" t="n">
-        <v>92050</v>
-      </c>
-      <c r="E98" t="n">
-        <v>92050</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-863.4460599100001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>92000</v>
-      </c>
-      <c r="C99" t="n">
-        <v>92600</v>
-      </c>
-      <c r="D99" t="n">
-        <v>92600</v>
-      </c>
-      <c r="E99" t="n">
-        <v>92000</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.1706</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-863.2754599100001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>93550</v>
-      </c>
-      <c r="C100" t="n">
-        <v>92000</v>
-      </c>
-      <c r="D100" t="n">
-        <v>93550</v>
-      </c>
-      <c r="E100" t="n">
-        <v>92000</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1.447</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-864.7224599100001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4068,9 +3724,11 @@
         <v>-863.0729599100001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>92000</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4105,9 +3763,11 @@
         <v>-863.5887599100001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>93350</v>
+      </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4142,9 +3802,11 @@
         <v>-863.6034599100001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>93300</v>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4179,9 +3841,11 @@
         <v>-863.6160599100001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>93250</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4216,9 +3880,11 @@
         <v>-864.2603599100001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>93150</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4253,9 +3919,11 @@
         <v>-862.3315599100001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>92000</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4290,9 +3958,11 @@
         <v>-862.3259599100002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>92250</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4327,9 +3997,11 @@
         <v>-862.3423599100001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>93100</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -4364,9 +4036,11 @@
         <v>-862.3423599100001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>93050</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4401,9 +4075,11 @@
         <v>-862.3479599100001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>93050</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4438,9 +4114,11 @@
         <v>-863.9783599100001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>92500</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4475,9 +4153,11 @@
         <v>-872.3519599100001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>91800</v>
+      </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4512,9 +4192,11 @@
         <v>-787.2259599100001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>91400</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4549,9 +4231,11 @@
         <v>-750.9245599100002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>91900</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4586,9 +4270,11 @@
         <v>-750.9245599100002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>92550</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4623,9 +4309,11 @@
         <v>-750.9245599100002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>92550</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4660,9 +4348,11 @@
         <v>-750.9245599100002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>92550</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4697,9 +4387,11 @@
         <v>-765.8732599100002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>92550</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4734,9 +4426,11 @@
         <v>-766.0688599100002</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>92500</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4771,9 +4465,11 @@
         <v>-766.0577599100002</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>91200</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4808,9 +4504,11 @@
         <v>-766.0632599100002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>91850</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4845,9 +4543,11 @@
         <v>-766.0687599100002</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>91300</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4882,9 +4582,11 @@
         <v>-766.0627599100002</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>91200</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4919,9 +4621,11 @@
         <v>-766.0682599100002</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>92850</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4956,9 +4660,11 @@
         <v>-766.0856599100001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>91400</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4993,9 +4699,11 @@
         <v>-766.0856599100001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>91100</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -5030,9 +4738,11 @@
         <v>-765.2956599100002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>91100</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5067,9 +4777,11 @@
         <v>-765.3012599100001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>91650</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5104,9 +4816,11 @@
         <v>-765.3012599100001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>91100</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5141,9 +4855,11 @@
         <v>-765.3012599100001</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>91100</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5178,9 +4894,11 @@
         <v>-765.3012599100001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>91100</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5215,9 +4933,11 @@
         <v>-765.3012599100001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>91100</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5252,9 +4972,11 @@
         <v>-765.3132599100001</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>91100</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5289,9 +5011,11 @@
         <v>-759.9965599100001</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>91000</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5326,9 +5050,11 @@
         <v>-759.9965599100001</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>91100</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5363,9 +5089,11 @@
         <v>-836.0513599100001</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>91100</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5400,9 +5128,11 @@
         <v>-834.76305991</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>90250</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5437,9 +5167,11 @@
         <v>-831.8837599100001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>91750</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5474,9 +5206,11 @@
         <v>-831.8896599100001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>91850</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5511,9 +5245,11 @@
         <v>-831.9007599100001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>90700</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5548,9 +5284,11 @@
         <v>-831.8950599100001</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>90600</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5585,9 +5323,11 @@
         <v>-831.8950599100001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>90650</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5622,9 +5362,11 @@
         <v>-831.7212599100001</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>90650</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5659,9 +5401,11 @@
         <v>-831.7878599100001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>90750</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5696,9 +5440,11 @@
         <v>-829.90355991</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>90550</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5733,9 +5479,11 @@
         <v>-833.56965991</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>91850</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5770,9 +5518,11 @@
         <v>-833.58095991</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>91250</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5807,9 +5557,11 @@
         <v>-833.56935991</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>90800</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5844,9 +5596,11 @@
         <v>-833.56935991</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>90950</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5881,9 +5635,11 @@
         <v>-833.56935991</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>90950</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5918,9 +5674,11 @@
         <v>-833.56935991</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>90950</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5955,9 +5713,11 @@
         <v>-833.58165991</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>90950</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5992,9 +5752,11 @@
         <v>-833.58165991</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>90700</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6029,9 +5791,11 @@
         <v>-833.58165991</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>90700</v>
+      </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6066,9 +5830,11 @@
         <v>-833.58165991</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>90700</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6103,9 +5869,11 @@
         <v>-826.3843599099999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>90700</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6140,9 +5908,11 @@
         <v>-826.3843599099999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>90900</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6177,9 +5947,11 @@
         <v>-826.3754599099999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>90900</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6214,9 +5986,11 @@
         <v>-826.7754599099999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>91450</v>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6251,9 +6025,11 @@
         <v>-820.3253599099999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>91200</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6288,9 +6064,11 @@
         <v>-840.0811599099999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>91400</v>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6325,9 +6103,11 @@
         <v>-840.0750599099999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>90900</v>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6362,9 +6142,11 @@
         <v>-846.5448599099999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>90950</v>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6399,9 +6181,11 @@
         <v>-846.5382599099999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>90500</v>
+      </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6436,9 +6220,11 @@
         <v>-847.8782599099999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>90950</v>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
@@ -6473,9 +6259,11 @@
         <v>-847.8711599099998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>90900</v>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
@@ -6510,9 +6298,11 @@
         <v>-847.8711599099998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>90950</v>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
@@ -6547,9 +6337,11 @@
         <v>-847.8711599099998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>90950</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6584,9 +6376,11 @@
         <v>-870.1941599099998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>90950</v>
+      </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
@@ -6621,9 +6415,11 @@
         <v>-870.1884599099998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>90750</v>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
@@ -6658,9 +6454,11 @@
         <v>-870.1884599099998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>90900</v>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
@@ -6695,9 +6493,11 @@
         <v>-864.8425599099997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>90900</v>
+      </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
@@ -6732,9 +6532,11 @@
         <v>-864.8366599099998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>91250</v>
+      </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
@@ -6769,9 +6571,11 @@
         <v>-864.8421599099997</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>91400</v>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
@@ -6806,9 +6610,11 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>91200</v>
+      </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
@@ -6843,9 +6649,11 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>90550</v>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
@@ -6880,9 +6688,11 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>90550</v>
+      </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
@@ -6917,9 +6727,11 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>90550</v>
+      </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
@@ -6954,9 +6766,11 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>90550</v>
+      </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6991,9 +6805,11 @@
         <v>-881.2147599099998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>90550</v>
+      </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -7028,9 +6844,11 @@
         <v>-867.7570599099997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>90550</v>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -7065,9 +6883,11 @@
         <v>-866.9620599099998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>90900</v>
+      </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7102,9 +6922,11 @@
         <v>-866.9737599099998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>90950</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7139,9 +6961,11 @@
         <v>-862.8677599099998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>90450</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7176,9 +7000,11 @@
         <v>-862.8738599099997</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>90600</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7213,9 +7039,11 @@
         <v>-862.8994599099998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>90450</v>
+      </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7250,9 +7078,11 @@
         <v>-860.8890599099998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>90200</v>
+      </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7287,9 +7117,11 @@
         <v>-858.2136599099998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>90550</v>
+      </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7324,9 +7156,11 @@
         <v>-858.2261599099999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>90650</v>
+      </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7361,9 +7195,11 @@
         <v>-858.2261599099999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>90600</v>
+      </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
@@ -7398,9 +7234,11 @@
         <v>-881.4034599099998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>90600</v>
+      </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7435,9 +7273,11 @@
         <v>-881.4034599099998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>90000</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7472,9 +7312,11 @@
         <v>-881.3794599099998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>90000</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7509,9 +7351,11 @@
         <v>-881.3917599099998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>90100</v>
+      </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7546,9 +7390,11 @@
         <v>-876.3917599099998</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>90050</v>
+      </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7583,9 +7429,11 @@
         <v>-883.3917599099998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>90850</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7620,9 +7468,11 @@
         <v>-883.3917599099998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>90450</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7657,9 +7507,11 @@
         <v>-883.3762599099998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>90450</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7694,9 +7546,11 @@
         <v>-866.6352599099998</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>90900</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7731,9 +7585,11 @@
         <v>-866.6352599099998</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>91550</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7768,9 +7624,11 @@
         <v>-866.6229599099998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>91550</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7805,9 +7663,11 @@
         <v>-874.0230599099998</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>91950</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7842,9 +7702,11 @@
         <v>-875.2361599099999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>91600</v>
+      </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7879,9 +7741,11 @@
         <v>-864.7232599099999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>91550</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7916,9 +7780,11 @@
         <v>-865.5784599099999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>91950</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7953,9 +7819,11 @@
         <v>-863.5877599099999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>91000</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7990,9 +7858,11 @@
         <v>-862.0897599099999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>91550</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -8027,9 +7897,11 @@
         <v>-862.0897599099999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>91900</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8064,9 +7936,11 @@
         <v>-862.0897599099999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>91900</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8101,9 +7975,11 @@
         <v>-855.0864599099999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>91900</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8138,9 +8014,11 @@
         <v>-843.9584599099999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>92050</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8175,9 +8053,11 @@
         <v>-841.7184599099999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>92900</v>
+      </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8212,9 +8092,11 @@
         <v>-840.7126599099998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>93000</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8249,9 +8131,11 @@
         <v>-840.7126599099998</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>93750</v>
+      </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8286,9 +8170,11 @@
         <v>-765.4074599099998</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>93750</v>
+      </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8323,9 +8209,11 @@
         <v>-765.4007599099998</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>93800</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8360,9 +8248,11 @@
         <v>-833.3258599099998</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>93900</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8397,9 +8287,11 @@
         <v>-832.3182599099998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>92050</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8434,9 +8326,11 @@
         <v>-832.3182599099998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>94200</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8471,9 +8365,11 @@
         <v>-821.5853599099999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>94200</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8545,9 +8441,11 @@
         <v>-821.4369599099998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>94550</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -12356,18 +12254,16 @@
         <v>1376.35030167</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
@@ -12393,15 +12289,11 @@
         <v>1311.91120167</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12430,15 +12322,11 @@
         <v>1191.17610167</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12467,15 +12355,11 @@
         <v>1313.88630167</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12504,15 +12388,11 @@
         <v>1296.56220167</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12541,15 +12421,11 @@
         <v>1219.90810167</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12578,15 +12454,11 @@
         <v>1332.30940167</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12615,15 +12487,11 @@
         <v>1255.29525072</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +12524,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12693,11 +12557,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12730,11 +12590,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12767,11 +12623,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12804,11 +12656,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12841,11 +12689,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12878,11 +12722,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12915,11 +12755,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12952,11 +12788,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12989,11 +12821,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13026,11 +12854,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13063,11 +12887,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13100,11 +12920,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13137,11 +12953,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13174,11 +12986,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13211,11 +13019,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13248,11 +13052,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13281,16 +13081,14 @@
         <v>1997.26026779</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
       <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
@@ -13316,7 +13114,7 @@
         <v>1962.60226779</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13349,7 +13147,7 @@
         <v>1863.87056779</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13382,7 +13180,7 @@
         <v>1882.31853409</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13415,7 +13213,7 @@
         <v>1860.71903409</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13448,7 +13246,7 @@
         <v>1899.79363409</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13481,7 +13279,7 @@
         <v>1929.97033409</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13514,7 +13312,7 @@
         <v>1930.84773409</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13547,7 +13345,7 @@
         <v>1906.85053409</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13580,7 +13378,7 @@
         <v>1927.54957367</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13613,7 +13411,7 @@
         <v>1919.39157367</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13646,7 +13444,7 @@
         <v>1902.45027367</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13679,7 +13477,7 @@
         <v>1711.65481325</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13712,7 +13510,7 @@
         <v>1711.66351325</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13745,7 +13543,7 @@
         <v>1685.35911325</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13778,7 +13576,7 @@
         <v>2006.35851325</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13811,7 +13609,7 @@
         <v>2014.42751325</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13844,7 +13642,7 @@
         <v>2014.42751325</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13877,7 +13675,7 @@
         <v>2014.42031325</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13910,7 +13708,7 @@
         <v>1996.02381325</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13976,7 +13774,7 @@
         <v>1866.97001325</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14009,7 +13807,7 @@
         <v>1768.46661325</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14042,7 +13840,7 @@
         <v>1766.81811325</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14075,7 +13873,7 @@
         <v>1748.51991325</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14108,7 +13906,7 @@
         <v>1557.84261325</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14141,7 +13939,7 @@
         <v>2023.74791325</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14174,7 +13972,7 @@
         <v>2065.31611325</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14339,7 +14137,7 @@
         <v>1955.82394282</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14372,7 +14170,7 @@
         <v>1954.68394282</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14405,7 +14203,7 @@
         <v>1956.53394282</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14438,7 +14236,7 @@
         <v>1956.40404282</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14471,7 +14269,7 @@
         <v>1946.11101623</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14504,7 +14302,7 @@
         <v>1946.11101623</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14537,7 +14335,7 @@
         <v>1939.97211623</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14570,7 +14368,7 @@
         <v>1938.79511623</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14603,7 +14401,7 @@
         <v>1982.58671623</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14636,7 +14434,7 @@
         <v>1982.58671623</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14669,7 +14467,7 @@
         <v>2023.32369984</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14702,7 +14500,7 @@
         <v>2049.91179984</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15329,7 +15127,7 @@
         <v>1932.115292350001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15362,7 +15160,7 @@
         <v>1932.115292350001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15395,7 +15193,7 @@
         <v>1919.382292350001</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15428,7 +15226,7 @@
         <v>1921.757392350001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15461,7 +15259,7 @@
         <v>1914.004992350001</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15494,7 +15292,7 @@
         <v>1905.629992350001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15527,7 +15325,7 @@
         <v>1907.820892350001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15560,7 +15358,7 @@
         <v>1907.820892350001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15593,7 +15391,7 @@
         <v>1906.767392350001</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15626,7 +15424,7 @@
         <v>1912.189192350001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15659,7 +15457,7 @@
         <v>1918.809492350001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15692,7 +15490,7 @@
         <v>1918.809492350001</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15725,7 +15523,7 @@
         <v>1912.809492350001</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15758,7 +15556,7 @@
         <v>1924.174092350001</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16286,7 +16084,7 @@
         <v>1656.360992350001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16319,7 +16117,7 @@
         <v>1664.360992350001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16352,7 +16150,7 @@
         <v>1651.457092350001</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16385,7 +16183,7 @@
         <v>1647.096392350001</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16418,7 +16216,7 @@
         <v>1654.000992350001</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16451,7 +16249,7 @@
         <v>1704.674692350001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16484,7 +16282,7 @@
         <v>1721.400292350001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16517,7 +16315,7 @@
         <v>1729.250292350001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16550,7 +16348,7 @@
         <v>1728.526792350001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16583,7 +16381,7 @@
         <v>1725.403192350001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16616,7 +16414,7 @@
         <v>1704.855392350001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16649,7 +16447,7 @@
         <v>1712.663592350001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16682,7 +16480,7 @@
         <v>1727.882892350001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16715,7 +16513,7 @@
         <v>1727.782892350001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16748,7 +16546,7 @@
         <v>1727.782892350001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16781,7 +16579,7 @@
         <v>1769.396692350001</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16814,7 +16612,7 @@
         <v>1769.396692350001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16847,7 +16645,7 @@
         <v>1790.611792350001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17276,7 +17074,7 @@
         <v>1712.012076030001</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17309,7 +17107,7 @@
         <v>1712.012076030001</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17342,7 +17140,7 @@
         <v>1695.764197430002</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17375,7 +17173,7 @@
         <v>1706.803697430002</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17408,7 +17206,7 @@
         <v>1698.339097430002</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17441,7 +17239,7 @@
         <v>1710.729997430002</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17474,7 +17272,7 @@
         <v>1710.729997430002</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17507,7 +17305,7 @@
         <v>1709.377797430002</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17540,7 +17338,7 @@
         <v>1707.117497430002</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17573,7 +17371,7 @@
         <v>1705.662597430002</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17606,7 +17404,7 @@
         <v>1705.662597430002</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17639,7 +17437,7 @@
         <v>1704.844997430002</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17705,7 +17503,7 @@
         <v>1703.717197430002</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17837,7 +17635,7 @@
         <v>1656.957997430002</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17870,7 +17668,7 @@
         <v>1672.323597430002</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17903,7 +17701,7 @@
         <v>1558.545695990002</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17936,7 +17734,7 @@
         <v>1560.980395990002</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17969,7 +17767,7 @@
         <v>1564.466595990002</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -25328,7 +25126,7 @@
         <v>1791.250769160001</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25361,7 +25159,7 @@
         <v>1791.420769160001</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25922,7 +25720,7 @@
         <v>1587.904169160001</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25955,7 +25753,7 @@
         <v>1577.550869160001</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26054,7 +25852,7 @@
         <v>1437.426969160001</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26087,7 +25885,7 @@
         <v>1423.873369160001</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26120,7 +25918,7 @@
         <v>1423.881369160001</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26153,7 +25951,7 @@
         <v>1369.095569160001</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26186,7 +25984,7 @@
         <v>1368.990469160001</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26219,7 +26017,7 @@
         <v>1368.990469160001</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26252,7 +26050,7 @@
         <v>1368.939269160001</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26285,7 +26083,7 @@
         <v>1383.307569160001</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26318,7 +26116,7 @@
         <v>1341.331569160001</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26351,7 +26149,7 @@
         <v>1368.022569160001</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26384,7 +26182,7 @@
         <v>1376.041956750001</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26417,7 +26215,7 @@
         <v>1379.504256750001</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26450,7 +26248,7 @@
         <v>1362.362756750001</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26483,7 +26281,7 @@
         <v>1345.875256750001</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26516,7 +26314,7 @@
         <v>1300.681656750001</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26549,7 +26347,7 @@
         <v>1300.752956750001</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26582,7 +26380,7 @@
         <v>1306.827156750001</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26615,7 +26413,7 @@
         <v>1306.732456750001</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26648,7 +26446,7 @@
         <v>1306.802556750001</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26681,7 +26479,7 @@
         <v>1301.275356750001</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26714,7 +26512,7 @@
         <v>1301.275356750001</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26747,7 +26545,7 @@
         <v>1301.275356750001</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26780,7 +26578,7 @@
         <v>1301.987356750001</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27242,7 +27040,7 @@
         <v>1268.68805675</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27275,7 +27073,7 @@
         <v>1267.22055675</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27308,7 +27106,7 @@
         <v>1267.36095675</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27341,7 +27139,7 @@
         <v>1264.98805675</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27374,7 +27172,7 @@
         <v>1266.775656750001</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27407,7 +27205,7 @@
         <v>1266.775656750001</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27440,7 +27238,7 @@
         <v>1240.13095675</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27473,7 +27271,7 @@
         <v>1189.30425675</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27506,7 +27304,7 @@
         <v>1175.15475675</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27539,7 +27337,7 @@
         <v>1177.22845675</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -27572,7 +27370,7 @@
         <v>1179.54875675</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27605,7 +27403,7 @@
         <v>1179.23515675</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27638,7 +27436,7 @@
         <v>1084.95105675</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27671,7 +27469,7 @@
         <v>1089.83225675</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27704,7 +27502,7 @@
         <v>1086.02955675</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27737,7 +27535,7 @@
         <v>1066.70885675</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27770,7 +27568,7 @@
         <v>1066.70885675</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27803,7 +27601,7 @@
         <v>1071.28245675</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27836,7 +27634,7 @@
         <v>1080.95885675</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27902,7 +27700,7 @@
         <v>1127.42443583</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27935,7 +27733,7 @@
         <v>1097.478535830001</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27968,7 +27766,7 @@
         <v>1090.76153583</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28067,7 +27865,7 @@
         <v>1008.39193583</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28133,7 +27931,7 @@
         <v>854.6126358300003</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -29255,7 +29053,7 @@
         <v>989.4613131900004</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29860,6 +29658,6 @@
       <c r="M852" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest DASH.xlsx
+++ b/BackTest/2020-01-16 BackTest DASH.xlsx
@@ -2530,11 +2530,17 @@
         <v>-831.4766599099999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>93150</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2569,17 @@
         <v>-841.9540599099998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>93400</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2608,17 @@
         <v>-841.9485599099999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>92050</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2647,17 @@
         <v>-839.9424599099999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>93350</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2686,17 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>93800</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2725,17 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>94500</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2764,17 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>94500</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2803,17 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>94500</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2842,17 @@
         <v>-824.8114599099999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>94500</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2881,17 @@
         <v>-806.89595991</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>94500</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2920,17 @@
         <v>-806.92855991</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>94950</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2959,17 @@
         <v>-816.30535991</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>94250</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2998,17 @@
         <v>-816.29975991</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>92250</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3037,17 @@
         <v>-816.32435991</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>94000</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3076,17 @@
         <v>-816.31745991</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>93000</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3115,17 @@
         <v>-817.33565991</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>94050</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3154,17 @@
         <v>-817.32335991</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>92550</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3193,17 @@
         <v>-817.31565991</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>93300</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3232,17 @@
         <v>-859.61455991</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>93550</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3271,17 @@
         <v>-852.4042599100001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>92850</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3310,17 @@
         <v>-856.9060599100001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>93500</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3349,17 @@
         <v>-856.99265991</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>93050</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3388,17 @@
         <v>-857.0187599100001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>93000</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3427,17 @@
         <v>-857.0256599100001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>92750</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3466,17 @@
         <v>-857.0256599100001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>92500</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3505,17 @@
         <v>-856.90845991</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>92500</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3544,17 @@
         <v>-861.0169599100001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>92850</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3583,17 @@
         <v>-861.0169599100001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>92800</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3622,17 @@
         <v>-860.5128599100001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>92800</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3661,17 @@
         <v>-860.5339599100001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>94150</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3700,17 @@
         <v>-863.4395599100002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>93350</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3739,17 @@
         <v>-863.4328599100002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>92550</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3778,17 @@
         <v>-863.4402599100001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>93650</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3817,17 @@
         <v>-863.4460599100001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>92950</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3856,17 @@
         <v>-863.2754599100001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>92050</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3693,7 +3903,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -8441,11 +8651,9 @@
         <v>-821.4369599099998</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>94550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -9035,9 +9243,11 @@
         <v>-885.2473599099999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>93750</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -9072,9 +9282,11 @@
         <v>-878.8644599099999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>94500</v>
+      </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
@@ -9886,9 +10098,11 @@
         <v>-833.99295991</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>94800</v>
+      </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9923,9 +10137,11 @@
         <v>-773.7929599099999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>94800</v>
+      </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9960,9 +10176,11 @@
         <v>-774.5793599099999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>95350</v>
+      </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9997,9 +10215,11 @@
         <v>-771.0243599099999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>94100</v>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -10034,9 +10254,11 @@
         <v>-772.0243599099999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>94450</v>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -10071,9 +10293,11 @@
         <v>-813.01745991</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>94150</v>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -10108,9 +10332,11 @@
         <v>-813.01745991</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>93300</v>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -10145,9 +10371,11 @@
         <v>-813.08495991</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>93300</v>
+      </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -10182,9 +10410,11 @@
         <v>-810.14955991</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>93250</v>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -10219,9 +10449,11 @@
         <v>-810.12675991</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>93400</v>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -10256,9 +10488,11 @@
         <v>-803.2267599100001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>93450</v>
+      </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -10293,9 +10527,11 @@
         <v>-793.4407599100001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>94100</v>
+      </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10330,9 +10566,11 @@
         <v>-784.4407599100001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>94500</v>
+      </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10367,9 +10605,11 @@
         <v>-795.6359599100001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>95300</v>
+      </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10404,9 +10644,11 @@
         <v>-795.5909546600001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>94550</v>
+      </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10441,9 +10683,11 @@
         <v>-804.28635466</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>95100</v>
+      </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10478,9 +10722,11 @@
         <v>-824.12875466</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>94900</v>
+      </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10515,9 +10761,11 @@
         <v>-813.02785466</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>93750</v>
+      </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10552,9 +10800,11 @@
         <v>-811.73625466</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>94850</v>
+      </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10589,9 +10839,11 @@
         <v>-820.96931416</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>95000</v>
+      </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10626,9 +10878,11 @@
         <v>-826.3581141599999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>94950</v>
+      </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10663,9 +10917,11 @@
         <v>-882.7865141599999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>94800</v>
+      </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10700,9 +10956,11 @@
         <v>-825.46251416</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>94100</v>
+      </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10737,9 +10995,11 @@
         <v>-793.10231416</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>94700</v>
+      </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10774,9 +11034,11 @@
         <v>-774.50051416</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>94800</v>
+      </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10811,9 +11073,11 @@
         <v>-761.0554141599999</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>95150</v>
+      </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10848,9 +11112,11 @@
         <v>-822.5124141599999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>95400</v>
+      </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -12254,16 +12520,18 @@
         <v>1376.35030167</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
       <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
@@ -12289,11 +12557,15 @@
         <v>1311.91120167</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12322,11 +12594,15 @@
         <v>1191.17610167</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12355,11 +12631,15 @@
         <v>1313.88630167</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12388,11 +12668,15 @@
         <v>1296.56220167</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12421,11 +12705,15 @@
         <v>1219.90810167</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +12742,15 @@
         <v>1332.30940167</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12487,11 +12779,15 @@
         <v>1255.29525072</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12524,7 +12820,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12557,7 +12857,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12590,7 +12894,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12623,7 +12931,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12656,7 +12968,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12689,7 +13005,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12722,7 +13042,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12755,7 +13079,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12788,7 +13116,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12821,7 +13153,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12850,14 +13186,16 @@
         <v>2010.16779559</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
@@ -12883,7 +13221,7 @@
         <v>2154.37845252</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12916,7 +13254,7 @@
         <v>2202.51013771</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12949,7 +13287,7 @@
         <v>2160.89656779</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12982,7 +13320,7 @@
         <v>2100.72766779</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13015,7 +13353,7 @@
         <v>2072.55356779</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13048,7 +13386,7 @@
         <v>2007.99366779</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13081,7 +13419,7 @@
         <v>1997.26026779</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13114,7 +13452,7 @@
         <v>1962.60226779</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13147,7 +13485,7 @@
         <v>1863.87056779</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13246,7 +13584,7 @@
         <v>1899.79363409</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13279,7 +13617,7 @@
         <v>1929.97033409</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13510,7 +13848,7 @@
         <v>1711.66351325</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
